--- a/biology/Histoire de la zoologie et de la botanique/François_Valentijn/François_Valentijn.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/François_Valentijn/François_Valentijn.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Valentijn</t>
+          <t>François_Valentijn</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">François Valentijn, né le 17 avril 1666[1] à Dordrecht et mort le 6 août 1727 à La Haye, est un naturaliste et un explorateur hollandais.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">François Valentijn, né le 17 avril 1666 à Dordrecht et mort le 6 août 1727 à La Haye, est un naturaliste et un explorateur hollandais.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Valentijn</t>
+          <t>François_Valentijn</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après ses études de pasteur, il part en 1685 pour les Indes néerlandaises (aujourd’hui l’Indonésie) pour y évangéliser les populations. Il revient brièvement en Europe en 1695 avant de repartir pour l'Asie et se fixe à Batavia en 1705. Durant ses séjours, il assemble d’immenses quantités d'information ainsi qu’une collection histoire naturelle qu’il exploite à son retour aux Pays-Bas en 1714.
 Il fait paraître de 1724 à 1726 un vaste ouvrage intitulé Oud en Nieuw Oost-Indiën vervattende een naaukeurige en uitvoerige verhandelinge van Nederlands mogentheyd in die gewesten, ouvrage qui demeurera un livre de référence durant plus d’un siècle. C'est une œuvre importante de 5 tomes en 8 volumes, illustrée de 1 050 planches.
